--- a/guest_model.xlsx
+++ b/guest_model.xlsx
@@ -891,10 +891,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
@@ -912,14 +912,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -935,6 +927,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -944,7 +944,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,6 +981,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -973,37 +995,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,14 +1014,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1044,6 +1036,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,19 +1096,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,85 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,25 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,37 +1270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,30 +1329,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1377,6 +1353,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1388,17 +1399,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,148 +1422,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10190,11 +10190,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
